--- a/biology/Histoire de la zoologie et de la botanique/Henri_Coquand/Henri_Coquand.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_Coquand/Henri_Coquand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Coquand (né à Aix-en-Provence le 15 juillet 1811 – mort à Marseille le 14 août 1881)[1] est un géologue et paléontologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Coquand (né à Aix-en-Provence le 15 juillet 1811 – mort à Marseille le 14 août 1881) est un géologue et paléontologue français.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est docteur en sciences à Paris en 1841[2],[note 1].
-Il est le fondateur du Muséum d'histoire naturelle d'Aix-en-Provence et l'inventeur des étages géologiques coniacien, santonien et campanien[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est docteur en sciences à Paris en 1841,[note 1].
+Il est le fondateur du Muséum d'histoire naturelle d'Aix-en-Provence et l'inventeur des étages géologiques coniacien, santonien et campanien.
 Ses études sont aussi à l'origine de la délimitation des crus de cognac, basée sur la nature des sols.
 Un minerai d'antimoine lui a été dédié en 1992, la coquandite (de formule chimique : Sb6 O8 (SO4) H2O).
-Une espèce fossile d'Hémiptères lui est aussi dédiée Aphrophora coquandi, par Nicolas Théobald[4].
+Une espèce fossile d'Hémiptères lui est aussi dédiée Aphrophora coquandi, par Nicolas Théobald.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Monographie du genre Ostrea : Terrain Crétacé, Paris, J. B. Baillière &amp; fils, 1869, 215 p. (lire en ligne)
 Description des terrains primaires et ignés du département du Var, Paris, P. Bertrand, 1850 (lire en ligne)
